--- a/门店与区域，角色与门店的关系.xlsx
+++ b/门店与区域，角色与门店的关系.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>85度C(崂山路店)</t>
   </si>
@@ -44,65 +44,143 @@
     <t>区域管理员</t>
   </si>
   <si>
+    <t>华东区域中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域(shop00表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域角色权限(Manager)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店(SHOP00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域账户(Manager)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户(Manager)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限(Manager)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华北区域中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域操作员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域操作员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>han2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chen1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chen2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bao1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bao2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>han3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>han4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chen3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chen4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bao3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bao4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85度C(大连路店)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85度C(大连路店)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85度C(漕宝路店)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85度C(漕宝路店)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85度C(长阳路店)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>85度C(陆家嘴店)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>85度C(人名广场店)</t>
-  </si>
-  <si>
-    <t>华东区域中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域(shop00表)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域角色权限(Manager)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门店(SHOP00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域账户(Manager)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户(Manager)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限(Manager)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华北区域中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域操作员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域操作员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85度C(陆家嘴店)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85度C(人名广场店)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,79 +188,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>han2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门店管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chen1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chen2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bao1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bao2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>han3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>han4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chen3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chen4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bao3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bao4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85度C(大连路店)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85度C(大连路店)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85度C(漕宝路店)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85度C(漕宝路店)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85度C(长阳路店)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85度C(陆家嘴店)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85度C(人名广场店)</t>
+    <t>123456xyz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456xyz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,10 +250,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -544,287 +562,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.125" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
-    <col min="5" max="5" width="26.375" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="2" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3">
+        <v>123456</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3">
+        <v>123456</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
+  <mergeCells count="22">
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D11:D13"/>
     <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
